--- a/Release/BOM/BOM.xlsx
+++ b/Release/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\H09R9x-Hardware\Release\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Qty</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>TOLERANCE</t>
-  </si>
-  <si>
-    <t>VOLT</t>
   </si>
   <si>
     <t>0.0R</t>
@@ -392,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,8 +569,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -688,6 +691,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -733,9 +764,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,419 +1114,411 @@
     <col min="6" max="6" width="48.625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="9" width="67.125" customWidth="1"/>
+    <col min="9" max="9" width="83.875" customWidth="1"/>
     <col min="10" max="10" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
-        <v>16</v>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="H12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="K6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
